--- a/PV-Data-Generation/daily_generation.xlsx
+++ b/PV-Data-Generation/daily_generation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kml/Desktop/GitHub/Data-Generation/PV-Data-Generation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\Data-Generation\PV-Data-Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9BE71F-2BB4-BF42-8907-E21BA0BF508A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD753C-0ADE-4A10-AF0E-1CD6DF0DAFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="26880" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="28785" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sum_montly" sheetId="1" r:id="rId1"/>
@@ -1839,7 +1839,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2006,7 +2006,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2120,7 +2120,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2776,9 +2776,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2816,7 +2816,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2922,7 +2922,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3064,7 +3064,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3074,17 +3074,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>37514.616000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>46723.538999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>73408.53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>85678.811000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>79251.186000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>77960.546000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>85673.914000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>91961.365999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>81901.308000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>52096.285000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>42805.601000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>47855.697</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>591.76099999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>2294.2379999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>308.24900000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>1274.6199999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>865.61599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>2560.752</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>671.47799999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>1876.7339999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>754.74199999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>2815.7179999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>363.298</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>670.91399999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>2037.309</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>1848.405</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>1967.72</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>1031.9169999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>966.577</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>2610.3539999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>165.87899999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>547.16600000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>1533.278</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>181.65899999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>1188.18</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>772.87199999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>2765.2139999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>1667.8389999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>1996.5450000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>1024.6510000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>1354.635</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>3268.3339999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>3115.3319999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>931.99199999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>2242.6990000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>2075.6390000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>367.82400000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>826.41800000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>2850.95</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>1381.7750000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>851.274</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>972.53700000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>3132.136</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>653.74300000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>2682.154</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>683.45899999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>3369.7950000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>2746.4989999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>1295.8330000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>243.107</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>648.12900000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>1033.883</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>1283.952</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>3094.7759999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>1737.4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>2413.7539999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>2862.6660000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>2285.759</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>2841.3009999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>3616.3420000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>1913.1659999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>1067.462</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>1110.932</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>2008.5440000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>418.66199999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>3749.0039999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>4089.3629999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>4074.3910000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>3994.482</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>3600.5419999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>2288.9389999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>2623.1210000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>3007.48</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>2192.9560000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>1097.011</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>2185.123</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>3024.4160000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>3053.1529999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>3553.2570000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>2538.5639999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>3871.8229999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>1130.7439999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>3952.6080000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>3755.22</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>3521.116</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>2972.3440000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>1382.653</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>1063.223</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>876.30700000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>1090.8779999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>2055.779</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>4230.7309999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>3174.6509999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>3309.2539999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>2401.3049999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>1898.93</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>3173.547</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>1129.895</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>1308.8810000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>2749.1170000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>4206.5060000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>4383.884</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>3699.598</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>2091.1779999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>3487.6239999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>3592.7849999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>2660.1329999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>4150.5280000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>3734.9009999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>4261.4080000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>4233.0829999999996</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>948.04300000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>2148.645</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>3054.7620000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>3365.6509999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>2854.3119999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>4243.5770000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>4164.9979999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>4135.7629999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>3855.6329999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>2055.683</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>3776.1990000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>753.226</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>884.20399999999995</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>1489.6890000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>2873.3980000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>1925.76</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>3339.72</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>3394.8229999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>552.03599999999994</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>2105.3249999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>4022.9830000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>3982.114</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>772.17100000000005</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>339.16699999999997</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>2292.337</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>3814.0479999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>3439.5709999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>2705.5749999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>1969.654</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>2072.4119999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>1919.7070000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>2453.6030000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>1881.624</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>3212.6680000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>3140.0659999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>2037.3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>3614.2579999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>3778.4989999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>1424.83</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>880.05700000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>3524.181</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>1252.7660000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>2763.3209999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>2769.8110000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>2665.73</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>3117.4029999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>2906.1579999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>2291.556</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>3373.1559999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>1283.7670000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>2238.607</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>1156.048</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>3272.2489999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>4031.884</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>3940.9650000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>3319.6390000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>653.19299999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>3037.5479999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>3304.6680000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>2601.2150000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>2033.7760000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>3578.3339999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>1730.289</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>1764.2249999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>2933.2579999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>3293.7269999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>3400.1030000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>3928.0569999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>3764.547</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>3397.8870000000002</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>3912.962</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>3094.203</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>864.69</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>1273.7909999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>1393.36</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>3042.201</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>2373.8020000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>2179.317</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>3039.2280000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>3901.652</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>3927.9780000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>2630.2719999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>2794.1309999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>2015.998</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>3123.5439999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>2596.125</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>2897.1680000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>2527.6390000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>2879.143</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>2933.596</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>3169.4430000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>1313.2439999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>3179.2330000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>2332.9870000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>3652.837</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>3357.2669999999998</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>217.44499999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>2597.6120000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>3661.875</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>3991.627</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>1002.591</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>2380.5230000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>2991.2020000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>229.352</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>3923.8490000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>3660.4409999999998</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>3478.5709999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>3076.7089999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>3465.5540000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>2974.1219999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>3142.386</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>2819.9369999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>2001.999</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>2259.5300000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>3843.223</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>4001.308</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>4009.6840000000002</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>3793.4259999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>3608.1619999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>3547.7530000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>2356.2130000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>3047.9479999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>2718.654</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>3099.6</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>3440.2350000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>2468.4479999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>2078.4079999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>2456.1579999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>3620.3539999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>3673.0250000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>3067.5630000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>3312.2139999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>3155.027</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>3537.6320000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>3599.51</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>3546.4780000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>3091.1149999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>2250.5250000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>323.38600000000002</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>628.29</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>142.04499999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>1572.3230000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>1871.557</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>3678.8249999999998</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>2438.2109999999998</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>3288.5650000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>3340.866</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>2880.8290000000002</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>2609.6149999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>3157.989</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>3515.9140000000002</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>3337.9470000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>2905.319</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>489.53500000000003</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>2271.4079999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>649.44299999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>2364.4389999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>714.01099999999997</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>551.31200000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>1376.511</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>2448.3939999999998</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>1965.789</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>1986.779</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>1374.85</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>2792.297</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>1768.24</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>1561.6569999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>3044.7779999999998</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>1900.0440000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>727.54300000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>1256.4159999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>1797.0830000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>853.17700000000002</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>2967.768</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>2054.9589999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>2434.3040000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>708.101</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>470.18599999999998</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>972.57899999999995</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>2754.1819999999998</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>404.58199999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>2070.5520000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>2460.047</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>2506.5479999999998</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>522.005</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>1638.395</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>2620.9059999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>1681.596</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>128.096</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>935.71</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>2323.08</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>2752.6309999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>1235.2059999999999</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>389.77499999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>793.46400000000006</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>590.80399999999997</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>2460.386</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>1819.8</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>173.64</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>721.43700000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>1663.453</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>283.41500000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>2474.1089999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>2282.4569999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>2029.258</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>2028.6890000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>1327.116</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>527.92200000000003</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>578.90099999999995</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>165.607</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>1037.8040000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>2751.0239999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>2362.3670000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>775.08500000000004</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>802.69</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>1140.9490000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>1575.972</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>2167.759</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>2214.67</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>1975.059</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>2368.5500000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>2355.232</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>2347.7049999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>722.01800000000003</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>170.74600000000001</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>1825.5340000000001</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>392.22</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>1555.8579999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>1902.454</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>1910.212</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>1014.277</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>1425.204</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>2143.8440000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>2231.87</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>2040.444</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>453.815</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>1108.2090000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>197.95699999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>1807.367</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>1719.231</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>958.88900000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>1963.4079999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>2319.7530000000002</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>

--- a/PV-Data-Generation/daily_generation.xlsx
+++ b/PV-Data-Generation/daily_generation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\Data-Generation\PV-Data-Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD753C-0ADE-4A10-AF0E-1CD6DF0DAFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D797091C-234F-41BD-B735-58FCCC851E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="28785" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2006,7 +2006,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2025,7 +2025,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="400"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -2056,7 +2056,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2069,7 +2069,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="900" baseline="0"/>
                   <a:t>kWh</a:t>
                 </a:r>
               </a:p>
@@ -2088,7 +2088,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2120,7 +2120,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3074,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
